--- a/inventario_clasificacion_activo_historial.xlsx
+++ b/inventario_clasificacion_activo_historial.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>ID Inventario Clasificacion Activo</t>
   </si>
@@ -71,49 +71,88 @@
     <t>Comentario</t>
   </si>
   <si>
+    <t>Estado</t>
+  </si>
+  <si>
     <t>Fecha</t>
   </si>
   <si>
     <t>Financiera Efectiva SA</t>
   </si>
   <si>
+    <t>LOGISTICA</t>
+  </si>
+  <si>
+    <t>Unidad RH</t>
+  </si>
+  <si>
+    <t>MACRO LOGISTICO</t>
+  </si>
+  <si>
+    <t>PROCESO RH</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>TIPO A</t>
+  </si>
+  <si>
+    <t>Cattegoria A</t>
+  </si>
+  <si>
+    <t>Javier Prado</t>
+  </si>
+  <si>
+    <t>Gerente de Logistica</t>
+  </si>
+  <si>
+    <t>Gerente de RH</t>
+  </si>
+  <si>
+    <t>ValorA</t>
+  </si>
+  <si>
+    <t>asdad</t>
+  </si>
+  <si>
+    <t>Borrador</t>
+  </si>
+  <si>
+    <t>2023-02-27 21:46:28.000</t>
+  </si>
+  <si>
     <t>RRHH</t>
   </si>
   <si>
-    <t>UNIDAD EXTRA</t>
-  </si>
-  <si>
-    <t>MACRO LOGISTICO</t>
-  </si>
-  <si>
-    <t>PROCESO RH</t>
-  </si>
-  <si>
-    <t>asda</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>TIPO A</t>
-  </si>
-  <si>
-    <t>Cattegoria A</t>
-  </si>
-  <si>
-    <t>Javier Prado</t>
-  </si>
-  <si>
-    <t>Gerente de RH</t>
-  </si>
-  <si>
-    <t>Gerente de Logistica</t>
-  </si>
-  <si>
-    <t>ValorA</t>
-  </si>
-  <si>
-    <t>2023-02-24 15:23:48.000</t>
+    <t>UNIDAD LOGISTICA</t>
+  </si>
+  <si>
+    <t>PROCESO LOGISTICO</t>
+  </si>
+  <si>
+    <t>jygy</t>
+  </si>
+  <si>
+    <t>kugk</t>
+  </si>
+  <si>
+    <t>jkbkj</t>
+  </si>
+  <si>
+    <t>2023-03-08 15:35:54.000</t>
+  </si>
+  <si>
+    <t>Registrado</t>
+  </si>
+  <si>
+    <t>2023-03-08 15:42:53.000</t>
+  </si>
+  <si>
+    <t>2023-03-08 16:55:02.000</t>
   </si>
 </sst>
 </file>
@@ -449,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +496,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,46 +554,49 @@
       <c r="S1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20">
       <c r="A2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2">
         <v>2</v>
@@ -566,13 +608,202 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
         <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S4" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
